--- a/Lab5/TestCase_Report.xlsx
+++ b/Lab5/TestCase_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ki2Nam4\Testing\Testing_Lab\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6FEFBB-2ED2-4F4F-ACB2-3D5B0278018F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E484B-3838-433C-97EB-D56CFBB1EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="267">
   <si>
     <t>SYSTEM TEST CASE</t>
   </si>
@@ -244,20 +244,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>DucTMC</t>
-  </si>
-  <si>
-    <t>Search Organization, Project, Campaign</t>
-  </si>
-  <si>
-    <t>1. Click "Tìm kiếm" bar.
-2. Enter value
-3. Press "Enter" button on keyboard.</t>
-  </si>
-  <si>
-    <t>- Application display a list of organizations, projects, campaigns matches the value entered by the user.</t>
   </si>
   <si>
     <t>Load users list</t>
@@ -592,6 +578,321 @@
   <si>
     <t>LAB5_BAI5</t>
   </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Child – tuổi nhỏ nhất hợp lệ</t>
+  </si>
+  <si>
+    <t>Chọn Child → nhập tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Child, Age=0</t>
+  </si>
+  <si>
+    <t>Payment = 50 euro</t>
+  </si>
+  <si>
+    <t>BVA (Lower bound)</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Child – tuổi lớn nhất hợp lệ</t>
+  </si>
+  <si>
+    <t>Type=Child, Age=17</t>
+  </si>
+  <si>
+    <t>BVA (Upper bound)</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Child – tuổi trong khoảng</t>
+  </si>
+  <si>
+    <t>Type=Child, Age=10</t>
+  </si>
+  <si>
+    <t>EP đại diện</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Male – biên dưới người lớn</t>
+  </si>
+  <si>
+    <t>Chọn Male → nhập tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=18</t>
+  </si>
+  <si>
+    <t>Payment = 100 euro</t>
+  </si>
+  <si>
+    <t>BVA (17/18)</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Male – biên 35</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=35</t>
+  </si>
+  <si>
+    <t>BVA</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Male – biên 36</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=36</t>
+  </si>
+  <si>
+    <t>Payment = 120 euro</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Male – biên 50</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=50</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Male – biên 51</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=51</t>
+  </si>
+  <si>
+    <t>Payment = 140 euro</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Male – biên trên tối đa</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=145</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Female – biên dưới người lớn</t>
+  </si>
+  <si>
+    <t>Chọn Female → nhập tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=18</t>
+  </si>
+  <si>
+    <t>Payment = 80 euro</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Female – biên 35</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=35</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Female – biên 36</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=36</t>
+  </si>
+  <si>
+    <t>Payment = 110 euro</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Female – biên 50</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=50</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Female – biên 51</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=51</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Female – biên trên tối đa</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=145</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Không chọn loại bệnh nhân</t>
+  </si>
+  <si>
+    <t>Không chọn loại → nhập tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=None, Age=20</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Please select patient type”</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Tuổi rỗng</t>
+  </si>
+  <si>
+    <t>Chọn Male → bỏ trống tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=""</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Age is required”</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Tuổi là chữ</t>
+  </si>
+  <si>
+    <t>Chọn Female → nhập chữ → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Female, Age="abc"</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Age must be integer”</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Tuổi là số thực</t>
+  </si>
+  <si>
+    <t>Chọn Male → nhập 10.5 → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=10.5</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>Tuổi âm</t>
+  </si>
+  <si>
+    <t>Type=Child, Age=-1</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Age out of range”</t>
+  </si>
+  <si>
+    <t>Robust BVA</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Tuổi vượt quá tối đa</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=146</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Child nhưng tuổi ≥18</t>
+  </si>
+  <si>
+    <t>Type=Child, Age=18</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Child age must be 0–17”</t>
+  </si>
+  <si>
+    <t>Mismatch</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Male nhưng tuổi &lt;18</t>
+  </si>
+  <si>
+    <t>Type=Male, Age=17</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Adult age must be ≥18”</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>Female nhưng tuổi &lt;18</t>
+  </si>
+  <si>
+    <t>Type=Female, Age=0</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>Chọn nhiều loại bệnh nhân</t>
+  </si>
+  <si>
+    <t>Tick nhiều loại → nhập tuổi → Calculate</t>
+  </si>
+  <si>
+    <t>Type=Male+Female, Age=20</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi “Select only one type”</t>
+  </si>
+  <si>
+    <t>Nếu UI không khóa</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +902,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -769,6 +1070,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -802,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1556,11 +1863,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1934,6 +2267,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2199,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="118"/>
       <c r="E4" s="119"/>
@@ -2315,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2343,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="118"/>
       <c r="E5" s="119"/>
@@ -2351,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2388,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -9235,7 +9580,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9314,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="119"/>
       <c r="E3" s="130" t="s">
@@ -9323,7 +9668,7 @@
       <c r="F3" s="119"/>
       <c r="G3" s="35"/>
       <c r="H3" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -9350,7 +9695,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="119"/>
       <c r="E4" s="130" t="s">
@@ -9359,7 +9704,7 @@
       <c r="F4" s="119"/>
       <c r="G4" s="35"/>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -9396,7 +9741,7 @@
       <c r="F5" s="119"/>
       <c r="G5" s="35"/>
       <c r="H5" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -9741,27 +10086,27 @@
       </c>
       <c r="D14" s="42">
         <f>LAB5_BAI4!B6</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E14" s="42">
         <f>LAB5_BAI4!C6</f>
         <v>0</v>
       </c>
       <c r="F14" s="42">
-        <f>LAB5_BAI4!D6</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
         <f>LAB5_BAI4!E6</f>
         <v>0</v>
       </c>
+      <c r="G14" s="42">
+        <f>LAB5_BAI4!F6</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="42">
-        <f>LAB5_BAI4!F6</f>
-        <v>1</v>
+        <f>LAB5_BAI4!G6</f>
+        <v>25</v>
       </c>
       <c r="I14" s="45">
         <f>LAB5_BAI4!A6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -10153,7 +10498,7 @@
       </c>
       <c r="D28" s="49">
         <f>SUM(D11:D27)</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E28" s="49">
         <f t="shared" ref="E28:G28" si="0">SUM(E9:E13)</f>
@@ -10169,11 +10514,11 @@
       </c>
       <c r="H28" s="49">
         <f>SUM(H11:H27)</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I28" s="50">
         <f>SUM(I11:I27)/COUNT(I11:I27)</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -10300,7 +10645,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="54">
         <f>I28</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -16862,7 +17207,7 @@
       </c>
       <c r="C5" s="119"/>
       <c r="D5" s="140" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" s="118"/>
       <c r="F5" s="119"/>
@@ -16987,10 +17332,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="73"/>
@@ -17021,10 +17366,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="79"/>
@@ -17055,10 +17400,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="78"/>
       <c r="F11" s="79"/>
@@ -17089,10 +17434,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="79"/>
@@ -17123,10 +17468,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="79"/>
@@ -23895,7 +24240,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -24143,13 +24488,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="116" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" s="102" t="s">
         <v>51</v>
@@ -24179,26 +24524,26 @@
         <v>[LAB5_BAI1-1]</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="106"/>
       <c r="E10" s="107" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J10" s="107">
         <v>15</v>
@@ -24211,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="107" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -24220,28 +24565,28 @@
         <v>[LAB5_BAI1-2]</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="113" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J11" s="107">
         <v>15</v>
@@ -24250,11 +24595,11 @@
         <v>15</v>
       </c>
       <c r="L11" s="109">
-        <f t="shared" ref="L10:L11" si="1">K11/J11</f>
+        <f t="shared" ref="L11" si="1">K11/J11</f>
         <v>1</v>
       </c>
       <c r="M11" s="107" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -24263,28 +24608,28 @@
         <v>[LAB5_BAI1-3]</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="113" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G12" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J12" s="107">
         <v>15</v>
@@ -24294,7 +24639,7 @@
       </c>
       <c r="L12" s="109"/>
       <c r="M12" s="112" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -24303,28 +24648,28 @@
         <v>[LAB5_BAI1-4]</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" s="112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G13" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J13" s="107">
         <v>15</v>
@@ -24344,28 +24689,28 @@
         <v>[LAB5_BAI1-5]</v>
       </c>
       <c r="B14" s="112" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="113" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="113" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="112" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G14" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J14" s="107">
         <v>15</v>
@@ -24378,7 +24723,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
@@ -24387,28 +24732,28 @@
         <v>[LAB5_BAI1-6]</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" s="113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15" s="112" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" s="107">
         <v>15</v>
@@ -24421,7 +24766,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
@@ -24430,28 +24775,28 @@
         <v>[LAB5_BAI1-7]</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16" s="113" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J16" s="107">
         <v>15</v>
@@ -24464,7 +24809,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="66" x14ac:dyDescent="0.25">
@@ -24473,28 +24818,28 @@
         <v>[LAB5_BAI1-8]</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="113" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G17" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J17" s="107">
         <v>15</v>
@@ -24507,7 +24852,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -24516,28 +24861,28 @@
         <v>[LAB5_BAI1-9]</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" s="113" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E18" s="112" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" s="112" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G18" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18" s="107">
         <v>15</v>
@@ -24550,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -25975,7 +26320,7 @@
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25987,8 +26332,8 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.44140625" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
@@ -26027,7 +26372,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -26275,13 +26620,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="102" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" s="102" t="s">
         <v>51</v>
@@ -26307,32 +26652,32 @@
     </row>
     <row r="10" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="106" t="str">
-        <f t="shared" ref="A10:A16" si="0">IF(OR(B10&lt;&gt;"",E10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <f t="shared" ref="A10:A13" si="0">IF(OR(B10&lt;&gt;"",E10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
         <v>[LAB5_BAI2-1]</v>
       </c>
       <c r="B10" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="E10" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>129</v>
-      </c>
       <c r="F10" s="107" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G10" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J10" s="107">
         <v>15</v>
@@ -26341,11 +26686,11 @@
         <v>15</v>
       </c>
       <c r="L10" s="109">
-        <f t="shared" ref="L10:L16" si="1">K10/J10</f>
+        <f t="shared" ref="L10:L13" si="1">K10/J10</f>
         <v>1</v>
       </c>
       <c r="M10" s="107" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
@@ -26354,28 +26699,28 @@
         <v>[LAB5_BAI2-2]</v>
       </c>
       <c r="B11" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>131</v>
-      </c>
       <c r="F11" s="107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J11" s="107">
         <v>15</v>
@@ -26395,13 +26740,13 @@
         <v>[LAB5_BAI2-3]</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E12" s="107" t="s">
         <v>24</v>
@@ -26413,10 +26758,10 @@
         <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J12" s="107">
         <v>15</v>
@@ -26429,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -26438,13 +26783,13 @@
         <v>[LAB5_BAI2-4]</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E13" s="107"/>
       <c r="F13" s="107"/>
@@ -26452,10 +26797,10 @@
         <v>24</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J13" s="107">
         <v>15</v>
@@ -27938,8 +28283,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27951,7 +28296,7 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
     <col min="11" max="12" width="8.44140625" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
@@ -27991,7 +28336,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -28239,13 +28584,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="102" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" s="102" t="s">
         <v>51</v>
@@ -28275,28 +28620,28 @@
         <v>[LAB5_BAI3-1]</v>
       </c>
       <c r="B10" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="107" t="s">
         <v>139</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>143</v>
       </c>
       <c r="G10" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J10" s="107">
         <v>15</v>
@@ -28309,7 +28654,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="52.8" x14ac:dyDescent="0.2">
@@ -28318,26 +28663,26 @@
         <v>[LAB5_BAI3-2]</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F11" s="107"/>
       <c r="G11" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J11" s="107">
         <v>15</v>
@@ -28357,26 +28702,26 @@
         <v>[LAB5_BAI3-3]</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E12" s="107" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" s="107"/>
       <c r="G12" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J12" s="107">
         <v>15</v>
@@ -28396,26 +28741,26 @@
         <v>[LAB5_BAI3-4]</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" s="107"/>
       <c r="G13" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J13" s="107">
         <v>15</v>
@@ -28435,26 +28780,26 @@
         <v>[LAB5_BAI3-5]</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="106" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D14" s="106" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F14" s="107"/>
       <c r="G14" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I14" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J14" s="107">
         <v>15</v>
@@ -28474,26 +28819,26 @@
         <v>[LAB5_BAI3-6]</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="106" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="107" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I15" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" s="107">
         <v>15</v>
@@ -29927,40 +30272,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="114"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="88"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="88"/>
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="89"/>
       <c r="M1" s="88"/>
       <c r="N1" s="88"/>
       <c r="O1" s="88"/>
@@ -29975,27 +30320,28 @@
       <c r="X1" s="88"/>
       <c r="Y1" s="88"/>
       <c r="Z1" s="88"/>
-    </row>
-    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AA1" s="88"/>
+    </row>
+    <row r="2" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="88"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="88"/>
       <c r="I2" s="88"/>
       <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="92" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="88"/>
       <c r="N2" s="88"/>
       <c r="O2" s="88"/>
       <c r="P2" s="88"/>
@@ -30009,25 +30355,26 @@
       <c r="X2" s="88"/>
       <c r="Y2" s="88"/>
       <c r="Z2" s="88"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AA2" s="88"/>
+    </row>
+    <row r="3" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="144"/>
       <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="88"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="88"/>
       <c r="I3" s="88"/>
       <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="88"/>
       <c r="N3" s="88"/>
       <c r="O3" s="88"/>
       <c r="P3" s="88"/>
@@ -30041,25 +30388,26 @@
       <c r="X3" s="88"/>
       <c r="Y3" s="88"/>
       <c r="Z3" s="88"/>
-    </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AA3" s="88"/>
+    </row>
+    <row r="4" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="88"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
       <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="92" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="88"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
@@ -30073,8 +30421,9 @@
       <c r="X4" s="88"/>
       <c r="Y4" s="88"/>
       <c r="Z4" s="88"/>
-    </row>
-    <row r="5" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="AA4" s="88"/>
+    </row>
+    <row r="5" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>28</v>
       </c>
@@ -30084,24 +30433,24 @@
       <c r="C5" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="F5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="G5" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="88"/>
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
       <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="92" t="s">
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="88"/>
       <c r="N5" s="88"/>
       <c r="O5" s="88"/>
       <c r="P5" s="88"/>
@@ -30115,38 +30464,39 @@
       <c r="X5" s="88"/>
       <c r="Y5" s="88"/>
       <c r="Z5" s="88"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA5" s="88"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="98">
-        <f>AVERAGE(K:K)</f>
-        <v>0.9</v>
+        <f>AVERAGE(L:L)</f>
+        <v>1</v>
       </c>
       <c r="B6" s="99">
-        <f>COUNTIF(F10:F991,"Pass")</f>
-        <v>1</v>
+        <f>COUNTIF(G10:G991,"Pass")</f>
+        <v>25</v>
       </c>
       <c r="C6" s="99">
-        <f>COUNTIF(F10:F991,"Fail")</f>
+        <f>COUNTIF(G10:G991,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="99">
-        <f>F6-E6-C6-B6</f>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99">
+        <f>G6-F6-C6-B6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="99">
-        <f>COUNTIF(F10:F991,"N/A")</f>
+      <c r="F6" s="99">
+        <f>COUNTIF(G10:G991,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="100">
+      <c r="G6" s="100">
         <f>COUNTA(A10:A991)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="88"/>
+        <v>25</v>
+      </c>
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
       <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
       <c r="O6" s="88"/>
@@ -30161,20 +30511,21 @@
       <c r="X6" s="88"/>
       <c r="Y6" s="88"/>
       <c r="Z6" s="88"/>
-    </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AA6" s="88"/>
+    </row>
+    <row r="7" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="101"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="88"/>
       <c r="I7" s="88"/>
       <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="88"/>
@@ -30189,14 +30540,14 @@
       <c r="X7" s="88"/>
       <c r="Y7" s="88"/>
       <c r="Z7" s="88"/>
-    </row>
-    <row r="8" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="88"/>
+      <c r="AA7" s="88"/>
+    </row>
+    <row r="8" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="88"/>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="88"/>
       <c r="N8" s="88"/>
       <c r="O8" s="88"/>
@@ -30211,715 +30562,1661 @@
       <c r="X8" s="88"/>
       <c r="Y8" s="88"/>
       <c r="Z8" s="88"/>
-    </row>
-    <row r="9" spans="1:26" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="AA8" s="88"/>
+    </row>
+    <row r="9" spans="1:27" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="H9" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="I9" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="J9" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="K9" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="L9" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="M9" s="145" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="str">
-        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
-        <v>[LAB5_BAI4-1]</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107" t="s">
+    <row r="10" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="108">
-        <v>44672</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="107">
-        <v>10</v>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>66</v>
       </c>
       <c r="J10" s="107">
-        <v>9</v>
-      </c>
-      <c r="K10" s="109">
-        <f>J10/I10</f>
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K13" s="110"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K15" s="110"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K16" s="110"/>
-    </row>
-    <row r="17" spans="11:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="11:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="11:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="110"/>
-    </row>
-    <row r="21" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="110"/>
-    </row>
-    <row r="22" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="110"/>
-    </row>
-    <row r="23" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="110"/>
-    </row>
-    <row r="24" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="110"/>
-    </row>
-    <row r="25" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="110"/>
-    </row>
-    <row r="26" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="110"/>
-    </row>
-    <row r="27" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K27" s="110"/>
-    </row>
-    <row r="28" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="110"/>
-    </row>
-    <row r="29" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="110"/>
-    </row>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="110"/>
-    </row>
-    <row r="31" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="110"/>
-    </row>
-    <row r="32" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="110"/>
-    </row>
-    <row r="33" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="110"/>
-    </row>
-    <row r="34" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="110"/>
-    </row>
-    <row r="35" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K35" s="110"/>
-    </row>
-    <row r="36" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K36" s="110"/>
-    </row>
-    <row r="37" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K37" s="110"/>
-    </row>
-    <row r="38" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K38" s="110"/>
-    </row>
-    <row r="39" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="110"/>
-    </row>
-    <row r="40" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="110"/>
-    </row>
-    <row r="41" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="110"/>
-    </row>
-    <row r="42" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="110"/>
-    </row>
-    <row r="43" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K43" s="110"/>
-    </row>
-    <row r="44" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K44" s="110"/>
-    </row>
-    <row r="45" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K45" s="110"/>
-    </row>
-    <row r="46" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="110"/>
-    </row>
-    <row r="47" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K47" s="110"/>
-    </row>
-    <row r="48" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K48" s="110"/>
-    </row>
-    <row r="49" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K49" s="110"/>
-    </row>
-    <row r="50" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K50" s="110"/>
-    </row>
-    <row r="51" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K51" s="110"/>
-    </row>
-    <row r="52" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K52" s="110"/>
-    </row>
-    <row r="53" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K53" s="110"/>
-    </row>
-    <row r="54" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K54" s="110"/>
-    </row>
-    <row r="55" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K55" s="110"/>
-    </row>
-    <row r="56" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K56" s="110"/>
-    </row>
-    <row r="57" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K57" s="110"/>
-    </row>
-    <row r="58" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K58" s="110"/>
-    </row>
-    <row r="59" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K59" s="110"/>
-    </row>
-    <row r="60" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K60" s="110"/>
-    </row>
-    <row r="61" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K61" s="110"/>
-    </row>
-    <row r="62" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K62" s="110"/>
-    </row>
-    <row r="63" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K63" s="110"/>
-    </row>
-    <row r="64" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K64" s="110"/>
-    </row>
-    <row r="65" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K65" s="110"/>
-    </row>
-    <row r="66" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K66" s="110"/>
-    </row>
-    <row r="67" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K67" s="110"/>
-    </row>
-    <row r="68" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K68" s="110"/>
-    </row>
-    <row r="69" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K69" s="110"/>
-    </row>
-    <row r="70" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K70" s="110"/>
-    </row>
-    <row r="71" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K71" s="110"/>
-    </row>
-    <row r="72" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K72" s="110"/>
-    </row>
-    <row r="73" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K73" s="110"/>
-    </row>
-    <row r="74" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K74" s="110"/>
-    </row>
-    <row r="75" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K75" s="110"/>
-    </row>
-    <row r="76" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K76" s="110"/>
-    </row>
-    <row r="77" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K77" s="110"/>
-    </row>
-    <row r="78" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K78" s="110"/>
-    </row>
-    <row r="79" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K79" s="110"/>
-    </row>
-    <row r="80" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K80" s="110"/>
-    </row>
-    <row r="81" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K81" s="110"/>
-    </row>
-    <row r="82" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K82" s="110"/>
-    </row>
-    <row r="83" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K83" s="110"/>
-    </row>
-    <row r="84" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K84" s="110"/>
-    </row>
-    <row r="85" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K85" s="110"/>
-    </row>
-    <row r="86" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K86" s="110"/>
-    </row>
-    <row r="87" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K87" s="110"/>
-    </row>
-    <row r="88" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K88" s="110"/>
-    </row>
-    <row r="89" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K89" s="110"/>
-    </row>
-    <row r="90" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K90" s="110"/>
-    </row>
-    <row r="91" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K91" s="110"/>
-    </row>
-    <row r="92" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K92" s="110"/>
-    </row>
-    <row r="93" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K93" s="110"/>
-    </row>
-    <row r="94" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K94" s="110"/>
-    </row>
-    <row r="95" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K95" s="110"/>
-    </row>
-    <row r="96" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K96" s="110"/>
-    </row>
-    <row r="97" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K97" s="110"/>
-    </row>
-    <row r="98" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K98" s="110"/>
-    </row>
-    <row r="99" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K99" s="110"/>
-    </row>
-    <row r="100" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K100" s="110"/>
-    </row>
-    <row r="101" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K101" s="110"/>
-    </row>
-    <row r="102" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K102" s="110"/>
-    </row>
-    <row r="103" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K103" s="110"/>
-    </row>
-    <row r="104" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K104" s="110"/>
-    </row>
-    <row r="105" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K105" s="110"/>
-    </row>
-    <row r="106" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K106" s="110"/>
-    </row>
-    <row r="107" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K107" s="110"/>
-    </row>
-    <row r="108" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K108" s="110"/>
-    </row>
-    <row r="109" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K109" s="110"/>
-    </row>
-    <row r="110" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K110" s="110"/>
-    </row>
-    <row r="111" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K111" s="110"/>
-    </row>
-    <row r="112" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K112" s="110"/>
-    </row>
-    <row r="113" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K113" s="110"/>
-    </row>
-    <row r="114" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K114" s="110"/>
-    </row>
-    <row r="115" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K115" s="110"/>
-    </row>
-    <row r="116" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K116" s="110"/>
-    </row>
-    <row r="117" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K117" s="110"/>
-    </row>
-    <row r="118" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K118" s="110"/>
-    </row>
-    <row r="119" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K119" s="110"/>
-    </row>
-    <row r="120" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K120" s="110"/>
-    </row>
-    <row r="121" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K121" s="110"/>
-    </row>
-    <row r="122" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K122" s="110"/>
-    </row>
-    <row r="123" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K123" s="110"/>
-    </row>
-    <row r="124" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K124" s="110"/>
-    </row>
-    <row r="125" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K125" s="110"/>
-    </row>
-    <row r="126" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K126" s="110"/>
-    </row>
-    <row r="127" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K127" s="110"/>
-    </row>
-    <row r="128" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K128" s="110"/>
-    </row>
-    <row r="129" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K129" s="110"/>
-    </row>
-    <row r="130" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K130" s="110"/>
-    </row>
-    <row r="131" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K131" s="110"/>
-    </row>
-    <row r="132" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K132" s="110"/>
-    </row>
-    <row r="133" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K133" s="110"/>
-    </row>
-    <row r="134" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K134" s="110"/>
-    </row>
-    <row r="135" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K135" s="110"/>
-    </row>
-    <row r="136" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K136" s="110"/>
-    </row>
-    <row r="137" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K137" s="110"/>
-    </row>
-    <row r="138" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K138" s="110"/>
-    </row>
-    <row r="139" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K139" s="110"/>
-    </row>
-    <row r="140" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K140" s="110"/>
-    </row>
-    <row r="141" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K141" s="110"/>
-    </row>
-    <row r="142" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K142" s="110"/>
-    </row>
-    <row r="143" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K143" s="110"/>
-    </row>
-    <row r="144" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K144" s="110"/>
-    </row>
-    <row r="145" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K145" s="110"/>
-    </row>
-    <row r="146" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K146" s="110"/>
-    </row>
-    <row r="147" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K147" s="110"/>
-    </row>
-    <row r="148" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K148" s="110"/>
-    </row>
-    <row r="149" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K149" s="110"/>
-    </row>
-    <row r="150" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K150" s="110"/>
-    </row>
-    <row r="151" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K151" s="110"/>
-    </row>
-    <row r="152" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K152" s="110"/>
-    </row>
-    <row r="153" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K153" s="110"/>
-    </row>
-    <row r="154" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K154" s="110"/>
-    </row>
-    <row r="155" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K155" s="110"/>
-    </row>
-    <row r="156" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K156" s="110"/>
-    </row>
-    <row r="157" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K157" s="110"/>
-    </row>
-    <row r="158" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K158" s="110"/>
-    </row>
-    <row r="159" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K159" s="110"/>
-    </row>
-    <row r="160" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K160" s="110"/>
-    </row>
-    <row r="161" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K161" s="110"/>
-    </row>
-    <row r="162" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K162" s="110"/>
-    </row>
-    <row r="163" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K163" s="110"/>
-    </row>
-    <row r="164" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K164" s="110"/>
-    </row>
-    <row r="165" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K165" s="110"/>
-    </row>
-    <row r="166" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K166" s="110"/>
-    </row>
-    <row r="167" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K167" s="110"/>
-    </row>
-    <row r="168" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K168" s="110"/>
-    </row>
-    <row r="169" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K169" s="110"/>
-    </row>
-    <row r="170" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K170" s="110"/>
-    </row>
-    <row r="171" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K171" s="110"/>
-    </row>
-    <row r="172" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K172" s="110"/>
-    </row>
-    <row r="173" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K173" s="110"/>
-    </row>
-    <row r="174" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K174" s="110"/>
-    </row>
-    <row r="175" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K175" s="110"/>
-    </row>
-    <row r="176" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K176" s="110"/>
-    </row>
-    <row r="177" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K177" s="110"/>
-    </row>
-    <row r="178" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K178" s="110"/>
-    </row>
-    <row r="179" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K179" s="110"/>
-    </row>
-    <row r="180" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K180" s="110"/>
-    </row>
-    <row r="181" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K181" s="110"/>
-    </row>
-    <row r="182" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K182" s="110"/>
-    </row>
-    <row r="183" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K183" s="110"/>
-    </row>
-    <row r="184" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K184" s="110"/>
-    </row>
-    <row r="185" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K185" s="110"/>
-    </row>
-    <row r="186" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K186" s="110"/>
-    </row>
-    <row r="187" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K187" s="110"/>
-    </row>
-    <row r="188" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K188" s="110"/>
-    </row>
-    <row r="189" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K189" s="110"/>
-    </row>
-    <row r="190" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K190" s="110"/>
-    </row>
-    <row r="191" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K191" s="110"/>
-    </row>
-    <row r="192" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K192" s="110"/>
-    </row>
-    <row r="193" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K193" s="110"/>
-    </row>
-    <row r="194" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K194" s="110"/>
-    </row>
-    <row r="195" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K195" s="110"/>
-    </row>
-    <row r="196" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K196" s="110"/>
-    </row>
-    <row r="197" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K197" s="110"/>
-    </row>
-    <row r="198" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K198" s="110"/>
-    </row>
-    <row r="199" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K199" s="110"/>
-    </row>
-    <row r="200" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K200" s="110"/>
-    </row>
-    <row r="201" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K201" s="110"/>
-    </row>
-    <row r="202" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K202" s="110"/>
-    </row>
-    <row r="203" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K203" s="110"/>
-    </row>
-    <row r="204" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K204" s="110"/>
-    </row>
-    <row r="205" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K205" s="110"/>
-    </row>
-    <row r="206" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="110"/>
-    </row>
-    <row r="207" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K207" s="110"/>
-    </row>
-    <row r="208" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K208" s="110"/>
-    </row>
-    <row r="209" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K209" s="110"/>
-    </row>
-    <row r="210" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K210" s="110"/>
-    </row>
-    <row r="211" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K211" s="110"/>
-    </row>
-    <row r="212" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K212" s="110"/>
-    </row>
-    <row r="213" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K213" s="110"/>
-    </row>
-    <row r="214" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K214" s="110"/>
-    </row>
-    <row r="215" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K215" s="110"/>
-    </row>
-    <row r="216" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K216" s="110"/>
-    </row>
-    <row r="217" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K217" s="110"/>
-    </row>
-    <row r="218" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K218" s="110"/>
-    </row>
-    <row r="219" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K219" s="110"/>
-    </row>
-    <row r="220" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K220" s="110"/>
-    </row>
-    <row r="221" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>15</v>
+      </c>
+      <c r="K10" s="107">
+        <v>15</v>
+      </c>
+      <c r="L10" s="109">
+        <f t="shared" ref="L10:L34" si="0">K10/J10</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="148" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="147" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="107">
+        <v>15</v>
+      </c>
+      <c r="K11" s="107">
+        <v>15</v>
+      </c>
+      <c r="L11" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="107">
+        <v>15</v>
+      </c>
+      <c r="K12" s="107">
+        <v>15</v>
+      </c>
+      <c r="L12" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="107">
+        <v>15</v>
+      </c>
+      <c r="K13" s="107">
+        <v>15</v>
+      </c>
+      <c r="L13" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="107">
+        <v>15</v>
+      </c>
+      <c r="K14" s="107">
+        <v>15</v>
+      </c>
+      <c r="L14" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="107">
+        <v>15</v>
+      </c>
+      <c r="K15" s="107">
+        <v>15</v>
+      </c>
+      <c r="L15" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="107">
+        <v>15</v>
+      </c>
+      <c r="K16" s="107">
+        <v>15</v>
+      </c>
+      <c r="L16" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="107">
+        <v>15</v>
+      </c>
+      <c r="K17" s="107">
+        <v>15</v>
+      </c>
+      <c r="L17" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="147" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="107">
+        <v>15</v>
+      </c>
+      <c r="K18" s="107">
+        <v>15</v>
+      </c>
+      <c r="L18" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="107">
+        <v>15</v>
+      </c>
+      <c r="K19" s="107">
+        <v>15</v>
+      </c>
+      <c r="L19" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="107">
+        <v>15</v>
+      </c>
+      <c r="K20" s="107">
+        <v>15</v>
+      </c>
+      <c r="L20" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="147" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="107">
+        <v>15</v>
+      </c>
+      <c r="K21" s="107">
+        <v>15</v>
+      </c>
+      <c r="L21" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="107">
+        <v>15</v>
+      </c>
+      <c r="K22" s="107">
+        <v>15</v>
+      </c>
+      <c r="L22" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="107">
+        <v>15</v>
+      </c>
+      <c r="K23" s="107">
+        <v>15</v>
+      </c>
+      <c r="L23" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="147" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="107">
+        <v>15</v>
+      </c>
+      <c r="K24" s="107">
+        <v>15</v>
+      </c>
+      <c r="L24" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="147" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="147" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="107">
+        <v>15</v>
+      </c>
+      <c r="K25" s="107">
+        <v>15</v>
+      </c>
+      <c r="L25" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="147" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="148" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="148" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="107">
+        <v>15</v>
+      </c>
+      <c r="K26" s="107">
+        <v>15</v>
+      </c>
+      <c r="L26" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="107">
+        <v>15</v>
+      </c>
+      <c r="K27" s="107">
+        <v>15</v>
+      </c>
+      <c r="L27" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="107">
+        <v>15</v>
+      </c>
+      <c r="K28" s="107">
+        <v>15</v>
+      </c>
+      <c r="L28" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="147" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="107">
+        <v>15</v>
+      </c>
+      <c r="K29" s="107">
+        <v>15</v>
+      </c>
+      <c r="L29" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="147" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="107">
+        <v>15</v>
+      </c>
+      <c r="K30" s="107">
+        <v>15</v>
+      </c>
+      <c r="L30" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="147" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="148" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="148" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="107">
+        <v>15</v>
+      </c>
+      <c r="K31" s="107">
+        <v>15</v>
+      </c>
+      <c r="L31" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="148" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="148" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="107">
+        <v>15</v>
+      </c>
+      <c r="K32" s="107">
+        <v>15</v>
+      </c>
+      <c r="L32" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="148" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="148" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="107">
+        <v>15</v>
+      </c>
+      <c r="K33" s="107">
+        <v>15</v>
+      </c>
+      <c r="L33" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="148" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="107">
+        <v>15</v>
+      </c>
+      <c r="K34" s="107">
+        <v>15</v>
+      </c>
+      <c r="L34" s="109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="148" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="110"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="110"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="110"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="110"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="110"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="110"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="110"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="110"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="110"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="110"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="110"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="110"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="110"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="110"/>
+    </row>
+    <row r="49" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="110"/>
+    </row>
+    <row r="50" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="110"/>
+    </row>
+    <row r="51" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="110"/>
+    </row>
+    <row r="52" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="110"/>
+    </row>
+    <row r="53" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="110"/>
+    </row>
+    <row r="54" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="110"/>
+    </row>
+    <row r="55" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="110"/>
+    </row>
+    <row r="56" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="110"/>
+    </row>
+    <row r="57" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="110"/>
+    </row>
+    <row r="58" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="110"/>
+    </row>
+    <row r="59" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="110"/>
+    </row>
+    <row r="60" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="110"/>
+    </row>
+    <row r="61" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="110"/>
+    </row>
+    <row r="62" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="110"/>
+    </row>
+    <row r="63" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="110"/>
+    </row>
+    <row r="64" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="110"/>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="110"/>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="110"/>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="110"/>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="110"/>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="110"/>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="110"/>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="110"/>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="110"/>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="110"/>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="110"/>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="110"/>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="110"/>
+    </row>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="110"/>
+    </row>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="110"/>
+    </row>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="110"/>
+    </row>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="110"/>
+    </row>
+    <row r="81" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="110"/>
+    </row>
+    <row r="82" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="110"/>
+    </row>
+    <row r="83" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="110"/>
+    </row>
+    <row r="84" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="110"/>
+    </row>
+    <row r="85" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="110"/>
+    </row>
+    <row r="86" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="110"/>
+    </row>
+    <row r="87" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="110"/>
+    </row>
+    <row r="88" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="110"/>
+    </row>
+    <row r="89" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="110"/>
+    </row>
+    <row r="90" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="110"/>
+    </row>
+    <row r="91" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="110"/>
+    </row>
+    <row r="92" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="110"/>
+    </row>
+    <row r="93" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="110"/>
+    </row>
+    <row r="94" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="110"/>
+    </row>
+    <row r="95" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="110"/>
+    </row>
+    <row r="96" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L96" s="110"/>
+    </row>
+    <row r="97" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="110"/>
+    </row>
+    <row r="98" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="110"/>
+    </row>
+    <row r="99" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="110"/>
+    </row>
+    <row r="100" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="110"/>
+    </row>
+    <row r="101" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L101" s="110"/>
+    </row>
+    <row r="102" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="110"/>
+    </row>
+    <row r="103" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="110"/>
+    </row>
+    <row r="104" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="110"/>
+    </row>
+    <row r="105" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="110"/>
+    </row>
+    <row r="106" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L106" s="110"/>
+    </row>
+    <row r="107" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="110"/>
+    </row>
+    <row r="108" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L108" s="110"/>
+    </row>
+    <row r="109" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="110"/>
+    </row>
+    <row r="110" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L110" s="110"/>
+    </row>
+    <row r="111" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="110"/>
+    </row>
+    <row r="112" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="110"/>
+    </row>
+    <row r="113" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L113" s="110"/>
+    </row>
+    <row r="114" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="110"/>
+    </row>
+    <row r="115" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L115" s="110"/>
+    </row>
+    <row r="116" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L116" s="110"/>
+    </row>
+    <row r="117" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L117" s="110"/>
+    </row>
+    <row r="118" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L118" s="110"/>
+    </row>
+    <row r="119" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L119" s="110"/>
+    </row>
+    <row r="120" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="110"/>
+    </row>
+    <row r="121" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="110"/>
+    </row>
+    <row r="122" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L122" s="110"/>
+    </row>
+    <row r="123" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L123" s="110"/>
+    </row>
+    <row r="124" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="110"/>
+    </row>
+    <row r="125" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="110"/>
+    </row>
+    <row r="126" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="110"/>
+    </row>
+    <row r="127" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L127" s="110"/>
+    </row>
+    <row r="128" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L128" s="110"/>
+    </row>
+    <row r="129" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="110"/>
+    </row>
+    <row r="130" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="110"/>
+    </row>
+    <row r="131" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="110"/>
+    </row>
+    <row r="132" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L132" s="110"/>
+    </row>
+    <row r="133" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L133" s="110"/>
+    </row>
+    <row r="134" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L134" s="110"/>
+    </row>
+    <row r="135" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L135" s="110"/>
+    </row>
+    <row r="136" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L136" s="110"/>
+    </row>
+    <row r="137" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L137" s="110"/>
+    </row>
+    <row r="138" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="110"/>
+    </row>
+    <row r="139" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="110"/>
+    </row>
+    <row r="140" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L140" s="110"/>
+    </row>
+    <row r="141" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L141" s="110"/>
+    </row>
+    <row r="142" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L142" s="110"/>
+    </row>
+    <row r="143" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L143" s="110"/>
+    </row>
+    <row r="144" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L144" s="110"/>
+    </row>
+    <row r="145" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L145" s="110"/>
+    </row>
+    <row r="146" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L146" s="110"/>
+    </row>
+    <row r="147" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L147" s="110"/>
+    </row>
+    <row r="148" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L148" s="110"/>
+    </row>
+    <row r="149" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L149" s="110"/>
+    </row>
+    <row r="150" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L150" s="110"/>
+    </row>
+    <row r="151" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L151" s="110"/>
+    </row>
+    <row r="152" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L152" s="110"/>
+    </row>
+    <row r="153" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L153" s="110"/>
+    </row>
+    <row r="154" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L154" s="110"/>
+    </row>
+    <row r="155" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L155" s="110"/>
+    </row>
+    <row r="156" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L156" s="110"/>
+    </row>
+    <row r="157" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L157" s="110"/>
+    </row>
+    <row r="158" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L158" s="110"/>
+    </row>
+    <row r="159" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L159" s="110"/>
+    </row>
+    <row r="160" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L160" s="110"/>
+    </row>
+    <row r="161" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L161" s="110"/>
+    </row>
+    <row r="162" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L162" s="110"/>
+    </row>
+    <row r="163" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L163" s="110"/>
+    </row>
+    <row r="164" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L164" s="110"/>
+    </row>
+    <row r="165" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L165" s="110"/>
+    </row>
+    <row r="166" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L166" s="110"/>
+    </row>
+    <row r="167" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L167" s="110"/>
+    </row>
+    <row r="168" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L168" s="110"/>
+    </row>
+    <row r="169" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L169" s="110"/>
+    </row>
+    <row r="170" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L170" s="110"/>
+    </row>
+    <row r="171" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L171" s="110"/>
+    </row>
+    <row r="172" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L172" s="110"/>
+    </row>
+    <row r="173" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L173" s="110"/>
+    </row>
+    <row r="174" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L174" s="110"/>
+    </row>
+    <row r="175" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L175" s="110"/>
+    </row>
+    <row r="176" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L176" s="110"/>
+    </row>
+    <row r="177" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L177" s="110"/>
+    </row>
+    <row r="178" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L178" s="110"/>
+    </row>
+    <row r="179" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L179" s="110"/>
+    </row>
+    <row r="180" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L180" s="110"/>
+    </row>
+    <row r="181" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L181" s="110"/>
+    </row>
+    <row r="182" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L182" s="110"/>
+    </row>
+    <row r="183" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L183" s="110"/>
+    </row>
+    <row r="184" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L184" s="110"/>
+    </row>
+    <row r="185" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L185" s="110"/>
+    </row>
+    <row r="186" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L186" s="110"/>
+    </row>
+    <row r="187" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L187" s="110"/>
+    </row>
+    <row r="188" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L188" s="110"/>
+    </row>
+    <row r="189" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L189" s="110"/>
+    </row>
+    <row r="190" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L190" s="110"/>
+    </row>
+    <row r="191" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L191" s="110"/>
+    </row>
+    <row r="192" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L192" s="110"/>
+    </row>
+    <row r="193" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L193" s="110"/>
+    </row>
+    <row r="194" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L194" s="110"/>
+    </row>
+    <row r="195" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L195" s="110"/>
+    </row>
+    <row r="196" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L196" s="110"/>
+    </row>
+    <row r="197" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L197" s="110"/>
+    </row>
+    <row r="198" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L198" s="110"/>
+    </row>
+    <row r="199" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L199" s="110"/>
+    </row>
+    <row r="200" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L200" s="110"/>
+    </row>
+    <row r="201" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L201" s="110"/>
+    </row>
+    <row r="202" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L202" s="110"/>
+    </row>
+    <row r="203" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L203" s="110"/>
+    </row>
+    <row r="204" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L204" s="110"/>
+    </row>
+    <row r="205" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L205" s="110"/>
+    </row>
+    <row r="206" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L206" s="110"/>
+    </row>
+    <row r="207" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L207" s="110"/>
+    </row>
+    <row r="208" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L208" s="110"/>
+    </row>
+    <row r="209" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L209" s="110"/>
+    </row>
+    <row r="210" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L210" s="110"/>
+    </row>
+    <row r="211" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L211" s="110"/>
+    </row>
+    <row r="212" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L212" s="110"/>
+    </row>
+    <row r="213" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L213" s="110"/>
+    </row>
+    <row r="214" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L214" s="110"/>
+    </row>
+    <row r="215" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L215" s="110"/>
+    </row>
+    <row r="216" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L216" s="110"/>
+    </row>
+    <row r="217" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L217" s="110"/>
+    </row>
+    <row r="218" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L218" s="110"/>
+    </row>
+    <row r="219" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L219" s="110"/>
+    </row>
+    <row r="220" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L220" s="110"/>
+    </row>
+    <row r="221" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31698,13 +32995,13 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F9:F10" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>$O$2:$O$5</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>$P$2:$P$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31913,13 +33210,13 @@
         <v>[Admin_UserManagement-]</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="107" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="107"/>
       <c r="F9" s="107" t="s">
@@ -31929,7 +33226,7 @@
         <v>44671</v>
       </c>
       <c r="H9" s="107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I9" s="107">
         <v>10</v>
@@ -31949,13 +33246,13 @@
         <v>[Admin_UserManagement-1]</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" s="107"/>
       <c r="F10" s="107" t="s">
@@ -31965,7 +33262,7 @@
         <v>44672</v>
       </c>
       <c r="H10" s="107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I10" s="107">
         <v>10</v>
